--- a/inputData/input_data_Amazon.xlsx
+++ b/inputData/input_data_Amazon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Class 23\1- Software\eclipse-java-2021-06-R-win32-x86_64\Workspace\Assignment_Selenium_Day09\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Class 23\1- Software\eclipse-java-2021-06-R-win32-x86_64\Workspace\Demo_Day09\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F0420F-644D-41F2-B4D7-8F59B58DC61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC94908-CEDB-4CD3-BC15-B9A5DAAA0A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>www.amazon.com</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
     <t>Appium</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Selenium</t>
+  </si>
+  <si>
+    <t>Katalon</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/inputData/input_data_Amazon.xlsx
+++ b/inputData/input_data_Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Class 23\1- Software\eclipse-java-2021-06-R-win32-x86_64\Workspace\Demo_Day09\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC94908-CEDB-4CD3-BC15-B9A5DAAA0A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BEEFC6-0C02-4C0F-B55D-18112A5B8448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>Selenium</t>
   </si>
   <si>
-    <t>Katalon</t>
+    <t>Hihi</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
